--- a/docs/examples/survey_import_template.xlsx
+++ b/docs/examples/survey_import_template.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -30,6 +30,9 @@
       <family val="2"/>
       <b val="1"/>
       <sz val="11"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -67,9 +70,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -450,42 +456,42 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>VariableName</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Group</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Question_de</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Question_en</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Scale_de</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Scale_en</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Question</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>Scale</t>
         </is>
